--- a/biology/Botanique/Marsilea_crenata/Marsilea_crenata.xlsx
+++ b/biology/Botanique/Marsilea_crenata/Marsilea_crenata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marsilea crenata (Javanais:Semanggi, thaï : ผักแว่น) est une espèce de fougère située en Asie du Sud-Est. C'est une plante aquatique ressemblant à un trèfle à quatre feuilles. Les feuilles flottent en eau profonde, ou émergent et se dressent en eau peu profonde ou sur terre.
 </t>
@@ -511,10 +523,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de Marsilea crenata sont utilisées en Indonésie dans la Cuisine javanaise, spécialement à l'est dans la ville de Surabaya où elles sont servies avec des patates douces et de la sauce Pecel[2].
-Elles sont aussi utilisées dans la cuisine thaïlandaise, et surtout dans la cuisine Isan, où on les appelle Phak waen, et sont consommées avec du Nam phrik[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de Marsilea crenata sont utilisées en Indonésie dans la Cuisine javanaise, spécialement à l'est dans la ville de Surabaya où elles sont servies avec des patates douces et de la sauce Pecel.
+Elles sont aussi utilisées dans la cuisine thaïlandaise, et surtout dans la cuisine Isan, où on les appelle Phak waen, et sont consommées avec du Nam phrik.
 </t>
         </is>
       </c>
